--- a/biology/Botanique/Najas_marina/Najas_marina.xlsx
+++ b/biology/Botanique/Najas_marina/Najas_marina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Naïade marine (Najas marina) est une des 38 espèces de plantes du genre Najas. C'est une plante submergée se plaisant dans les eaux stagnantes et calcaires. Elle fait partie de la flore subaquatique de France[2].
-Elle est également connue sous les noms suivants[2] : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Naïade marine (Najas marina) est une des 38 espèces de plantes du genre Najas. C'est une plante submergée se plaisant dans les eaux stagnantes et calcaires. Elle fait partie de la flore subaquatique de France.
+Elle est également connue sous les noms suivants : 
 Grande naïade,
 Naïade majeure,
 Naïade des fleuves,
@@ -516,7 +528,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans la majeure partie du monde, on la retrouve dans quasiment toutes les régions de France.
 </t>
@@ -547,7 +561,9 @@
           <t>Critères de reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante submergée
 Taille de 10 cm à 2 m
